--- a/KL19AVX 赤外線リモコン設定ツール対応モデル.xlsx
+++ b/KL19AVX 赤外線リモコン設定ツール対応モデル.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\892526\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\gittest\IRremote\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$T$57</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$U$58</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="118">
   <si>
     <t>A9</t>
   </si>
@@ -433,6 +433,33 @@
   </si>
   <si>
     <t>16統合ローカル通信データ仕様書【Syscom間】.xlsx　(シート"SYSTEM" の　System Status　初期データ通知)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DDXGT500R2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B9B480</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対応バージョン</t>
+    <rPh sb="0" eb="2">
+      <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0.0.2.21459</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0.0.1.25800</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0.0.3.27712</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -803,7 +830,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I56"/>
+  <dimension ref="B2:J57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -815,30 +842,31 @@
     <col min="5" max="5" width="11.875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="2.625" customWidth="1"/>
+    <col min="8" max="8" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="I3" t="s">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="J3" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="I4" s="4" t="s">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="J4" s="4" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="I5" t="s">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="J5" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.15">
       <c r="C6" s="1" t="s">
         <v>103</v>
       </c>
@@ -854,8 +882,11 @@
       <c r="G6" s="2" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="H6" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.15">
       <c r="C7" s="1">
         <v>1</v>
       </c>
@@ -871,8 +902,11 @@
       <c r="G7" s="3">
         <v>43542</v>
       </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="H7" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.15">
       <c r="C8" s="1">
         <v>2</v>
       </c>
@@ -888,8 +922,11 @@
       <c r="G8" s="3">
         <v>43542</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="H8" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.15">
       <c r="C9" s="1">
         <v>3</v>
       </c>
@@ -905,8 +942,11 @@
       <c r="G9" s="3">
         <v>43542</v>
       </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="H9" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.15">
       <c r="C10" s="1">
         <v>4</v>
       </c>
@@ -922,8 +962,11 @@
       <c r="G10" s="3">
         <v>43542</v>
       </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="H10" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.15">
       <c r="C11" s="1">
         <v>5</v>
       </c>
@@ -939,8 +982,11 @@
       <c r="G11" s="3">
         <v>43622</v>
       </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="H11" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.15">
       <c r="C12" s="1">
         <v>6</v>
       </c>
@@ -956,8 +1002,11 @@
       <c r="G12" s="3">
         <v>43542</v>
       </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="H12" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.15">
       <c r="C13" s="1">
         <v>7</v>
       </c>
@@ -973,8 +1022,11 @@
       <c r="G13" s="3">
         <v>43542</v>
       </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="H13" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.15">
       <c r="C14" s="1">
         <v>8</v>
       </c>
@@ -990,8 +1042,11 @@
       <c r="G14" s="3">
         <v>43542</v>
       </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="H14" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.15">
       <c r="C15" s="1">
         <v>9</v>
       </c>
@@ -1007,8 +1062,11 @@
       <c r="G15" s="3">
         <v>43542</v>
       </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="H15" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.15">
       <c r="C16" s="1">
         <v>10</v>
       </c>
@@ -1024,8 +1082,11 @@
       <c r="G16" s="3">
         <v>43542</v>
       </c>
-    </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="H16" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="17" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C17" s="1">
         <v>11</v>
       </c>
@@ -1041,8 +1102,11 @@
       <c r="G17" s="3">
         <v>43542</v>
       </c>
-    </row>
-    <row r="18" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="H17" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="18" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C18" s="1">
         <v>12</v>
       </c>
@@ -1058,8 +1122,11 @@
       <c r="G18" s="3">
         <v>43542</v>
       </c>
-    </row>
-    <row r="19" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="H18" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="19" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C19" s="1">
         <v>13</v>
       </c>
@@ -1075,8 +1142,11 @@
       <c r="G19" s="3">
         <v>43542</v>
       </c>
-    </row>
-    <row r="20" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="H19" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="20" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C20" s="1">
         <v>14</v>
       </c>
@@ -1092,8 +1162,11 @@
       <c r="G20" s="3">
         <v>43542</v>
       </c>
-    </row>
-    <row r="21" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="H20" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="21" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C21" s="1">
         <v>15</v>
       </c>
@@ -1109,8 +1182,11 @@
       <c r="G21" s="3">
         <v>43542</v>
       </c>
-    </row>
-    <row r="22" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="H21" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="22" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C22" s="1">
         <v>16</v>
       </c>
@@ -1126,8 +1202,11 @@
       <c r="G22" s="3">
         <v>43542</v>
       </c>
-    </row>
-    <row r="23" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="H22" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="23" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C23" s="1">
         <v>17</v>
       </c>
@@ -1143,8 +1222,11 @@
       <c r="G23" s="3">
         <v>43542</v>
       </c>
-    </row>
-    <row r="24" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="H23" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="24" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C24" s="1">
         <v>18</v>
       </c>
@@ -1160,8 +1242,11 @@
       <c r="G24" s="3">
         <v>43542</v>
       </c>
-    </row>
-    <row r="25" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="H24" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="25" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C25" s="1">
         <v>19</v>
       </c>
@@ -1177,8 +1262,11 @@
       <c r="G25" s="3">
         <v>43542</v>
       </c>
-    </row>
-    <row r="26" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="H25" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="26" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C26" s="1">
         <v>20</v>
       </c>
@@ -1194,8 +1282,11 @@
       <c r="G26" s="3">
         <v>43542</v>
       </c>
-    </row>
-    <row r="27" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="H26" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="27" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C27" s="1">
         <v>21</v>
       </c>
@@ -1211,8 +1302,11 @@
       <c r="G27" s="3">
         <v>43542</v>
       </c>
-    </row>
-    <row r="28" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="H27" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="28" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C28" s="1">
         <v>22</v>
       </c>
@@ -1228,8 +1322,11 @@
       <c r="G28" s="3">
         <v>43542</v>
       </c>
-    </row>
-    <row r="29" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="H28" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="29" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C29" s="1">
         <v>23</v>
       </c>
@@ -1245,8 +1342,11 @@
       <c r="G29" s="3">
         <v>43542</v>
       </c>
-    </row>
-    <row r="30" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="H29" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="30" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C30" s="1">
         <v>24</v>
       </c>
@@ -1262,8 +1362,11 @@
       <c r="G30" s="3">
         <v>43542</v>
       </c>
-    </row>
-    <row r="31" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="H30" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="31" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C31" s="1">
         <v>25</v>
       </c>
@@ -1279,8 +1382,11 @@
       <c r="G31" s="3">
         <v>43542</v>
       </c>
-    </row>
-    <row r="32" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="H31" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="32" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C32" s="1">
         <v>26</v>
       </c>
@@ -1296,8 +1402,11 @@
       <c r="G32" s="3">
         <v>43542</v>
       </c>
-    </row>
-    <row r="33" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="H32" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="33" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C33" s="1">
         <v>27</v>
       </c>
@@ -1313,8 +1422,11 @@
       <c r="G33" s="3">
         <v>43542</v>
       </c>
-    </row>
-    <row r="34" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="H33" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="34" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C34" s="1">
         <v>28</v>
       </c>
@@ -1330,178 +1442,211 @@
       <c r="G34" s="3">
         <v>43542</v>
       </c>
-    </row>
-    <row r="35" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="H34" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="35" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C35" s="1">
         <v>29</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>13</v>
+        <v>112</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="G35" s="3">
-        <v>43542</v>
-      </c>
-    </row>
-    <row r="36" spans="3:7" x14ac:dyDescent="0.15">
+        <v>43670</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="36" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C36" s="1">
         <v>30</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G36" s="3">
         <v>43542</v>
       </c>
-    </row>
-    <row r="37" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="H36" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="37" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C37" s="1">
         <v>31</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G37" s="3">
         <v>43542</v>
       </c>
-    </row>
-    <row r="38" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="H37" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="38" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C38" s="1">
         <v>32</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G38" s="3">
         <v>43542</v>
       </c>
-    </row>
-    <row r="39" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="H38" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="39" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C39" s="1">
         <v>33</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G39" s="3">
         <v>43542</v>
       </c>
-    </row>
-    <row r="40" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="H39" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="40" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C40" s="1">
         <v>34</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G40" s="3">
         <v>43542</v>
       </c>
-    </row>
-    <row r="41" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="H40" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="41" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C41" s="1">
         <v>35</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G41" s="3">
         <v>43542</v>
       </c>
-    </row>
-    <row r="42" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="H41" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="42" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C42" s="1">
         <v>36</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G42" s="3">
         <v>43542</v>
       </c>
-    </row>
-    <row r="43" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="H42" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="43" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C43" s="1">
         <v>37</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G43" s="3">
         <v>43542</v>
       </c>
-    </row>
-    <row r="44" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="H43" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="44" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C44" s="1">
         <v>38</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G44" s="3">
         <v>43542</v>
       </c>
-    </row>
-    <row r="45" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="H44" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="45" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C45" s="1">
         <v>39</v>
       </c>
@@ -1509,33 +1654,39 @@
         <v>16</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G45" s="3">
         <v>43542</v>
       </c>
-    </row>
-    <row r="46" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="H45" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="46" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C46" s="1">
         <v>40</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G46" s="3">
         <v>43542</v>
       </c>
-    </row>
-    <row r="47" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="H46" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="47" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C47" s="1">
         <v>41</v>
       </c>
@@ -1543,172 +1694,222 @@
         <v>17</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G47" s="3">
         <v>43542</v>
       </c>
-    </row>
-    <row r="48" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="H47" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="48" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C48" s="1">
         <v>42</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G48" s="3">
         <v>43542</v>
       </c>
-    </row>
-    <row r="49" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="H48" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="49" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C49" s="1">
         <v>43</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G49" s="3">
         <v>43542</v>
       </c>
-    </row>
-    <row r="50" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="H49" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="50" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C50" s="1">
         <v>44</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G50" s="3">
         <v>43542</v>
       </c>
-    </row>
-    <row r="51" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="H50" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="51" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C51" s="1">
         <v>45</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G51" s="3">
         <v>43542</v>
       </c>
-    </row>
-    <row r="52" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="H51" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="52" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C52" s="1">
         <v>46</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G52" s="3">
         <v>43542</v>
       </c>
-    </row>
-    <row r="53" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="H52" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="53" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C53" s="1">
         <v>47</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G53" s="3">
         <v>43542</v>
       </c>
-    </row>
-    <row r="54" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="H53" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="54" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C54" s="1">
         <v>48</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G54" s="3">
         <v>43542</v>
       </c>
-    </row>
-    <row r="55" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="H54" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="55" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C55" s="1">
         <v>49</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G55" s="3">
         <v>43542</v>
       </c>
-    </row>
-    <row r="56" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="H55" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="56" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C56" s="1">
         <v>50</v>
       </c>
       <c r="D56" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G56" s="3">
+        <v>43542</v>
+      </c>
+      <c r="H56" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="57" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C57" s="1">
+        <v>51</v>
+      </c>
+      <c r="D57" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E56" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F56" s="1" t="s">
+      <c r="E57" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F57" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="G56" s="3">
-        <v>43542</v>
+      <c r="G57" s="3">
+        <v>43542</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="I4" r:id="rId1"/>
+    <hyperlink ref="J4" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="53" orientation="portrait" r:id="rId2"/>

--- a/KL19AVX 赤外線リモコン設定ツール対応モデル.xlsx
+++ b/KL19AVX 赤外線リモコン設定ツール対応モデル.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$U$58</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$U$59</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="121">
   <si>
     <t>A9</t>
   </si>
@@ -460,6 +460,18 @@
   </si>
   <si>
     <t>0.0.3.27712</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DDXGT500R4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B9B481</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0.0.4.29879</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -830,7 +842,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:J57"/>
+  <dimension ref="B2:J58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -841,7 +853,7 @@
     <col min="4" max="4" width="12.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="2.625" customWidth="1"/>
   </cols>
@@ -1471,19 +1483,19 @@
         <v>30</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>76</v>
+        <v>119</v>
       </c>
       <c r="G36" s="3">
-        <v>43542</v>
+        <v>43761</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="37" spans="3:8" x14ac:dyDescent="0.15">
@@ -1491,13 +1503,13 @@
         <v>31</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G37" s="3">
         <v>43542</v>
@@ -1511,13 +1523,13 @@
         <v>32</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G38" s="3">
         <v>43542</v>
@@ -1531,13 +1543,13 @@
         <v>33</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G39" s="3">
         <v>43542</v>
@@ -1551,13 +1563,13 @@
         <v>34</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G40" s="3">
         <v>43542</v>
@@ -1571,13 +1583,13 @@
         <v>35</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G41" s="3">
         <v>43542</v>
@@ -1591,13 +1603,13 @@
         <v>36</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G42" s="3">
         <v>43542</v>
@@ -1611,13 +1623,13 @@
         <v>37</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G43" s="3">
         <v>43542</v>
@@ -1631,13 +1643,13 @@
         <v>38</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G44" s="3">
         <v>43542</v>
@@ -1651,13 +1663,13 @@
         <v>39</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G45" s="3">
         <v>43542</v>
@@ -1674,10 +1686,10 @@
         <v>16</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G46" s="3">
         <v>43542</v>
@@ -1691,13 +1703,13 @@
         <v>41</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G47" s="3">
         <v>43542</v>
@@ -1714,10 +1726,10 @@
         <v>17</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G48" s="3">
         <v>43542</v>
@@ -1731,13 +1743,13 @@
         <v>43</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G49" s="3">
         <v>43542</v>
@@ -1751,13 +1763,13 @@
         <v>44</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G50" s="3">
         <v>43542</v>
@@ -1771,13 +1783,13 @@
         <v>45</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G51" s="3">
         <v>43542</v>
@@ -1791,13 +1803,13 @@
         <v>46</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G52" s="3">
         <v>43542</v>
@@ -1811,13 +1823,13 @@
         <v>47</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G53" s="3">
         <v>43542</v>
@@ -1831,13 +1843,13 @@
         <v>48</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G54" s="3">
         <v>43542</v>
@@ -1851,13 +1863,13 @@
         <v>49</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G55" s="3">
         <v>43542</v>
@@ -1871,13 +1883,13 @@
         <v>50</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G56" s="3">
         <v>43542</v>
@@ -1891,18 +1903,38 @@
         <v>51</v>
       </c>
       <c r="D57" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G57" s="3">
+        <v>43542</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="58" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C58" s="1">
+        <v>52</v>
+      </c>
+      <c r="D58" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E57" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F57" s="1" t="s">
+      <c r="E58" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F58" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="G57" s="3">
-        <v>43542</v>
-      </c>
-      <c r="H57" s="3" t="s">
+      <c r="G58" s="3">
+        <v>43542</v>
+      </c>
+      <c r="H58" s="3" t="s">
         <v>116</v>
       </c>
     </row>
